--- a/src/core/data/breakTime copy.xlsx
+++ b/src/core/data/breakTime copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyethm/Documents/GR/SchedulingAlgorithm/src/core/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0C2A31-3B27-9848-913F-A9C1285ABB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB9FCC8-854A-804D-AD6E-95740E112728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{4E022CB3-BC86-644D-BA04-13B6648D75E6}"/>
   </bookViews>
@@ -49,8 +49,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,8 +89,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2397ECA-1685-1C47-91D5-02A4A668298C}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,6 +603,225 @@
         <v>44519.541666666664</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44519.708333333336</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44522.333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B2+7</f>
+        <v>44522.5</v>
+      </c>
+      <c r="C19" s="2">
+        <f>C2+7</f>
+        <v>44522.541666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <f>B3+7</f>
+        <v>44522.708333333336</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C3+7</f>
+        <v>44522.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B4+7</f>
+        <v>44522.833333333336</v>
+      </c>
+      <c r="C21" s="2">
+        <f>C4+7</f>
+        <v>44522.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <f>B5+7</f>
+        <v>44522.958333333336</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C5+7</f>
+        <v>44523.28125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B6+7</f>
+        <v>44523.5</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C6+7</f>
+        <v>44523.541666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B7+7</f>
+        <v>44523.708333333336</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C7+7</f>
+        <v>44523.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <f>B8+7</f>
+        <v>44523.833333333336</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C8+7</f>
+        <v>44523.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B9+7</f>
+        <v>44523.958333333336</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C9+7</f>
+        <v>44524.28125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <f>B10+7</f>
+        <v>44524.5</v>
+      </c>
+      <c r="C27" s="2">
+        <f>C10+7</f>
+        <v>44524.541666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B11+7</f>
+        <v>44524.708333333336</v>
+      </c>
+      <c r="C28" s="2">
+        <f>C11+7</f>
+        <v>44524.854166666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B12+7</f>
+        <v>44524.958333333336</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C12+7</f>
+        <v>44525.333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B13+7</f>
+        <v>44525.5</v>
+      </c>
+      <c r="C30" s="2">
+        <f>C13+7</f>
+        <v>44525.541666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B14+7</f>
+        <v>44525.708333333336</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C14+7</f>
+        <v>44525.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B15+7</f>
+        <v>44525.833333333336</v>
+      </c>
+      <c r="C32" s="2">
+        <f>C15+7</f>
+        <v>44525.875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B16+7</f>
+        <v>44525.958333333336</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C16+7</f>
+        <v>44526.333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B17+7</f>
+        <v>44526.5</v>
+      </c>
+      <c r="C34" s="2">
+        <f>C17+7</f>
+        <v>44526.541666666664</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C17">
     <sortCondition ref="B2:B17"/>

--- a/src/core/data/breakTime copy.xlsx
+++ b/src/core/data/breakTime copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyethm/Documents/GR/SchedulingAlgorithm/src/core/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB9FCC8-854A-804D-AD6E-95740E112728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6320C-EC06-C540-99CD-C96660E02E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{4E022CB3-BC86-644D-BA04-13B6648D75E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E022CB3-BC86-644D-BA04-13B6648D75E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>44515.5</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>44515.708333333336</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2">
         <v>44515.833333333336</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2">
         <v>44515.958333333336</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2">
         <v>44516.5</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2">
         <v>44516.708333333336</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2">
         <v>44516.833333333336</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2">
         <v>44516.958333333336</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
         <v>44517.5</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2">
         <v>44517.708333333336</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2">
         <v>44517.958333333336</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2">
         <v>44518.5</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2">
         <v>44518.708333333336</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2">
         <v>44518.833333333336</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2">
         <v>44518.958333333336</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2">
         <v>44519.5</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2">
         <v>44519.708333333336</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2">
         <f>B2+7</f>
@@ -629,7 +629,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2">
         <f>B3+7</f>
@@ -642,7 +642,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2">
         <f>B4+7</f>
@@ -655,7 +655,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2">
         <f>B5+7</f>
@@ -668,7 +668,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B23" s="2">
         <f>B6+7</f>
@@ -681,7 +681,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2">
         <f>B7+7</f>
@@ -694,7 +694,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B25" s="2">
         <f>B8+7</f>
@@ -707,7 +707,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B26" s="2">
         <f>B9+7</f>
@@ -720,7 +720,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2">
         <f>B10+7</f>
@@ -733,7 +733,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2">
         <f>B11+7</f>
@@ -746,7 +746,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2">
         <f>B12+7</f>
@@ -759,7 +759,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2">
         <f>B13+7</f>
@@ -772,7 +772,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2">
         <f>B14+7</f>
@@ -785,7 +785,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2">
         <f>B15+7</f>
@@ -798,7 +798,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2">
         <f>B16+7</f>
@@ -811,7 +811,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B34" s="2">
         <f>B17+7</f>
